--- a/RegressionTests/NeuralNetClassifier_Unit_Test_1/aptrans_HiddenColumn.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_1/aptrans_HiddenColumn.xlsx
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="176">
   <si>
     <t>Square Inc PRSA - 604425</t>
   </si>
@@ -639,8 +639,8 @@
     <t>881957</t>
   </si>
   <si>
-    <t>Forename [Kilmeena] does not match Refno member's (0886344) forename [SEAN] or its initial
-Surname [Craughwell] does not match Refno member's (0886344) surname [HILL]  (forename SEAN)</t>
+    <t>Member (Refno=0886344) status is PP so name is not validated
+Member status is inactive so paypoint is not returned</t>
   </si>
   <si>
     <t>886344</t>
@@ -717,7 +717,7 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>1160322</t>
+    <t>1179572</t>
   </si>
   <si>
     <t>442501</t>
@@ -726,43 +726,43 @@
     <t>Direct Debit</t>
   </si>
   <si>
-    <t>26/04/2021</t>
+    <t>19/08/2021</t>
   </si>
   <si>
-    <t>23,283.77</t>
+    <t>24/08/2021</t>
   </si>
   <si>
-    <t>01/04/2021</t>
+    <t>1,509.72</t>
   </si>
   <si>
-    <t>ILIM April 21</t>
+    <t>01/08/2021</t>
   </si>
   <si>
-    <t>1157143</t>
+    <t>ILIM August 2021 - W Egan &amp; J Sheehan</t>
   </si>
   <si>
-    <t>07/04/2021</t>
+    <t>1178374</t>
   </si>
   <si>
-    <t>22,624.43</t>
+    <t>29,124.36</t>
   </si>
   <si>
-    <t>01/03/2021</t>
+    <t>ILIM August 2021</t>
   </si>
   <si>
-    <t>ILIM Mar 2021</t>
+    <t>1174219</t>
   </si>
   <si>
-    <t>1157139</t>
+    <t>20/07/2021</t>
   </si>
   <si>
-    <t>1,715.63</t>
+    <t>27,253.85</t>
   </si>
   <si>
-    <t>01/02/2021</t>
+    <t>01/07/2021</t>
   </si>
   <si>
-    <t>ILIM Feb 2021 arrears</t>
+    <t>ILIM July 2021</t>
   </si>
   <si>
     <t>Forename [Rosscarbery] does not match Refno member's (0935932) forename [PAUL] or its initial
@@ -1031,14 +1031,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1051,6 +1043,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -1078,7 +1078,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
@@ -1302,11 +1302,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5262,7 +5265,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -5285,7 +5288,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -5307,8 +5310,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -5326,12 +5329,9 @@
       <c r="F5" s="106">
         <v>895.53</v>
       </c>
-      <c r="G5" s="106" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -5354,7 +5354,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -5377,7 +5377,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -5400,7 +5400,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -5423,7 +5423,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -5446,7 +5446,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -5469,7 +5469,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -5492,7 +5492,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -10631,7 +10631,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -10654,7 +10654,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -10676,8 +10676,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -10695,12 +10695,9 @@
       <c r="F5" s="106">
         <v>798.41</v>
       </c>
-      <c r="G5" s="106" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -10723,7 +10720,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -10746,7 +10743,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -10769,7 +10766,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -10792,7 +10789,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -10815,7 +10812,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -10838,7 +10835,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -10861,7 +10858,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -10884,7 +10881,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>173</v>
       </c>
       <c r="B14" s="106" t="s">
@@ -16020,7 +16017,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -16043,7 +16040,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -16065,8 +16062,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -16084,12 +16081,9 @@
       <c r="F5" s="106">
         <v>268.56</v>
       </c>
-      <c r="G5" s="106" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -16112,7 +16106,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -16135,7 +16129,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -16158,7 +16152,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -16181,7 +16175,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -16204,7 +16198,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -16227,7 +16221,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -16250,7 +16244,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -16273,7 +16267,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>174</v>
       </c>
       <c r="B14" s="106" t="s">
@@ -21410,7 +21404,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -21433,7 +21427,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -21455,8 +21449,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -21474,12 +21468,9 @@
       <c r="F5" s="106">
         <v>0.0</v>
       </c>
-      <c r="G5" s="106" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -21502,7 +21493,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -21525,7 +21516,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -21548,7 +21539,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -21571,7 +21562,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -21594,7 +21585,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -21617,7 +21608,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -21640,7 +21631,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -21663,7 +21654,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>174</v>
       </c>
       <c r="B14" s="106" t="s">
@@ -26801,7 +26792,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -26824,7 +26815,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -26846,8 +26837,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -26865,12 +26856,9 @@
       <c r="F5" s="106">
         <v>0.0</v>
       </c>
-      <c r="G5" s="106" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -26893,7 +26881,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -26916,7 +26904,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -26939,7 +26927,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -26962,7 +26950,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -26985,7 +26973,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -27008,7 +26996,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -27031,7 +27019,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -27054,7 +27042,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>174</v>
       </c>
       <c r="B14" s="106" t="s">
@@ -32214,7 +32202,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -32237,7 +32225,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -32259,8 +32247,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -32278,12 +32266,9 @@
       <c r="F5" s="106">
         <v>812.5</v>
       </c>
-      <c r="G5" s="106" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -32306,7 +32291,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -32329,7 +32314,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -32352,7 +32337,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -32375,7 +32360,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -32467,7 +32452,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -32490,7 +32475,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -32512,8 +32497,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -32531,12 +32516,9 @@
       <c r="F5" s="106">
         <v>0.0</v>
       </c>
-      <c r="G5" s="106" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -32559,7 +32541,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -32582,7 +32564,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -32605,7 +32587,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -32628,7 +32610,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -32651,7 +32633,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -32674,7 +32656,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -32697,7 +32679,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -32720,7 +32702,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>174</v>
       </c>
       <c r="B14" s="106" t="s">
@@ -38070,7 +38052,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -38093,7 +38075,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -38115,8 +38097,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -38134,12 +38116,9 @@
       <c r="F5" s="106">
         <v>0.0</v>
       </c>
-      <c r="G5" s="106" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -38162,7 +38141,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -38185,7 +38164,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -38208,7 +38187,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -38231,7 +38210,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -38254,7 +38233,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -38277,7 +38256,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -38300,7 +38279,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -38323,7 +38302,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>174</v>
       </c>
       <c r="B14" s="106" t="s">
@@ -38346,7 +38325,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="110" t="s">
         <v>173</v>
       </c>
       <c r="B15" s="106" t="s">
@@ -38366,7 +38345,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="110" t="s">
         <v>173</v>
       </c>
       <c r="B16" s="106" t="s">
@@ -38386,7 +38365,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="110" t="s">
         <v>173</v>
       </c>
       <c r="B17" s="106" t="s">
@@ -43637,7 +43616,7 @@
     <col min="6" max="6" width="12.625" style="106"/>
     <col min="7" max="7" width="15.75" style="106"/>
     <col min="8" max="8" width="10.5" style="106"/>
-    <col min="9" max="9" width="19.25" style="106"/>
+    <col min="9" max="9" width="34.625" style="106"/>
     <col min="10" max="16384" width="9.25" style="106"/>
   </cols>
   <sheetData>
@@ -43678,31 +43657,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="110" t="s">
+      <c r="E12" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="110" t="s">
+      <c r="F12" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="110" t="s">
+      <c r="G12" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="110" t="s">
+      <c r="H12" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="I12" s="110" t="s">
+      <c r="I12" s="111" t="s">
         <v>150</v>
       </c>
     </row>
@@ -43723,16 +43702,16 @@
         <v>155</v>
       </c>
       <c r="F13" s="106" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G13" s="106" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H13" s="106" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I13" s="106" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -43740,7 +43719,7 @@
         <v>151</v>
       </c>
       <c r="B14" s="106" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" s="106" t="s">
         <v>153</v>
@@ -43749,19 +43728,19 @@
         <v>154</v>
       </c>
       <c r="E14" s="106" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F14" s="106" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G14" s="106" t="s">
         <v>161</v>
       </c>
       <c r="H14" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="106" t="s">
         <v>162</v>
-      </c>
-      <c r="I14" s="106" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
@@ -43769,7 +43748,7 @@
         <v>151</v>
       </c>
       <c r="B15" s="106" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="106" t="s">
         <v>153</v>
@@ -43778,10 +43757,10 @@
         <v>154</v>
       </c>
       <c r="E15" s="106" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F15" s="106" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G15" s="106" t="s">
         <v>165</v>
@@ -47621,7 +47600,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -47644,7 +47623,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -47666,8 +47645,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -47685,12 +47664,9 @@
       <c r="F5" s="106">
         <v>812.5</v>
       </c>
-      <c r="G5" s="106" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -47713,7 +47689,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -47736,7 +47712,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -47759,7 +47735,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -47782,7 +47758,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -53188,7 +53164,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -53211,7 +53187,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -53233,8 +53209,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
-      <c r="A5" s="109" t="s">
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -53252,12 +53228,9 @@
       <c r="F5" s="106">
         <v>812.5</v>
       </c>
-      <c r="G5" s="106" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -53280,7 +53253,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -53303,7 +53276,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -53326,7 +53299,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -53349,7 +53322,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -53372,7 +53345,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -53395,7 +53368,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -53418,7 +53391,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
